--- a/Test Data/T1727_T1755.xlsx
+++ b/Test Data/T1727_T1755.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BC5DFE-894A-4CDC-9C05-1DCD0D56A7F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D185A7-7383-47C0-B1E0-1D78642458E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Panels" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>NGC-3475/T1727/T1755</t>
+  </si>
+  <si>
+    <t>MX Minerva Bridge Kit</t>
   </si>
 </sst>
 </file>
@@ -617,228 +620,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="6"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B861310-CF6A-4AD9-AB70-EC9709296A66}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -904,6 +685,228 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B861310-CF6A-4AD9-AB70-EC9709296A66}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -924,11 +927,16 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
     </row>
